--- a/data/trans_camb/P14B23_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B23_2016_2023-Habitat-trans_camb.xlsx
@@ -567,10 +567,10 @@
         <v>3.18283326426641</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.07025240140334024</v>
+        <v>0.07025240140333955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.636525486492912</v>
+        <v>1.636525486492911</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.562678308374774</v>
+        <v>1.437824733827264</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.923914826053872</v>
+        <v>-2.066448571052541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2323554321251327</v>
+        <v>0.1545611019706079</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.275108600414935</v>
+        <v>5.410132557923801</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.007813394528268</v>
+        <v>2.013035978575095</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.036872304735809</v>
+        <v>3.159165676219458</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>2.341082600179968</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.01439336792469309</v>
+        <v>0.01439336792469295</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5251366185379456</v>
+        <v>0.5251366185379451</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6060257220618942</v>
+        <v>0.5835785874616444</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3132876716027386</v>
+        <v>-0.3233150962047036</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04486695325412013</v>
+        <v>0.03932391788015611</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.24059664144754</v>
+        <v>7.465830130641558</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5684455930205908</v>
+        <v>0.5645174540383795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.247893695758278</v>
+        <v>1.365808350966938</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>1.290007645336893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.225545132962188</v>
+        <v>1.225545132962189</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2501204879652713</v>
+        <v>0.1525129062038858</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4687232738196246</v>
+        <v>-0.2849416923293658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09558825015900982</v>
+        <v>0.2280315463634704</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.414959458878126</v>
+        <v>2.274948435732226</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.977854631015582</v>
+        <v>2.99305420452925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.161997059179297</v>
+        <v>2.289492089282669</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.3025497791302082</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4721438612632616</v>
+        <v>0.4721438612632619</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1019987457764307</v>
+        <v>0.04375745282886385</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08431998075636948</v>
+        <v>-0.06971699599661893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02167568620897566</v>
+        <v>0.06532892045119834</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.498307964956032</v>
+        <v>4.338933231013009</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9116331944567334</v>
+        <v>0.908921457220157</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.030113377473606</v>
+        <v>1.097639280884969</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>1.374927006099505</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.192734527130207</v>
+        <v>3.192734527130209</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.282311957907646</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1973406741671318</v>
+        <v>-0.1203915055625427</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9472987805450485</v>
+        <v>1.106478151024207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9588599912770656</v>
+        <v>0.8998676396542428</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.355625737639105</v>
+        <v>3.198020822679009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.177994723520593</v>
+        <v>5.398869689198263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.691342299211033</v>
+        <v>3.678709379349277</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.8714161432006284</v>
+        <v>0.8714161432006287</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.9052948873732429</v>
+        <v>0.9052948873732433</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.8886356103487421</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1335173755586667</v>
+        <v>-0.1644478190870003</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1761162397955415</v>
+        <v>0.2317462113201442</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2799184885787897</v>
+        <v>0.2327373457564421</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.533046421760782</v>
+        <v>3.539223434933623</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.039136111976441</v>
+        <v>2.141700022375112</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.94140831924386</v>
+        <v>1.895599790518933</v>
       </c>
     </row>
     <row r="22">
@@ -885,7 +885,7 @@
         <v>2.42179114071938</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.621682738496629</v>
+        <v>1.621682738496631</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.0084547550057</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.020519584596138</v>
+        <v>0.9438389583726701</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5687665878460896</v>
+        <v>-0.2812876563806798</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7257006589242156</v>
+        <v>0.7520497113878588</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.909172868539459</v>
+        <v>3.975452426100675</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.436920932227436</v>
+        <v>3.575621501568629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.162847029439559</v>
+        <v>3.162983099528592</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         <v>1.40119451177058</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3384160773473154</v>
+        <v>0.3384160773473157</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.6009215163228723</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3596063524889351</v>
+        <v>0.2952761517295354</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09635072852468263</v>
+        <v>-0.06453788504258011</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1676381388919703</v>
+        <v>0.1758970699097347</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.090877184161957</v>
+        <v>3.199783498636256</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9031480386959061</v>
+        <v>0.9468010119159808</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.146800286550571</v>
+        <v>1.153116435568149</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>1.963142990799373</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.573588621426604</v>
+        <v>1.573588621426605</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.772527167003445</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.190951588174656</v>
+        <v>1.228129928113821</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6001555088381689</v>
+        <v>0.5740749148724088</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.119041710876134</v>
+        <v>1.21355673115653</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.706745787508257</v>
+        <v>2.716385812342118</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.573428124883754</v>
+        <v>2.552314103422611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.40045395399983</v>
+        <v>2.385338612565823</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>1.432850874760139</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.3598343901705934</v>
+        <v>0.3598343901705935</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.6103982339853368</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.7321300313691873</v>
+        <v>0.7203401844676323</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.120265249336391</v>
+        <v>0.1149152907838642</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3365504929652709</v>
+        <v>0.3642764572227427</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.609436315962792</v>
+        <v>2.563287552707104</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6837749070919151</v>
+        <v>0.6509220197584513</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9136891810451411</v>
+        <v>0.9099461187934732</v>
       </c>
     </row>
     <row r="34">
